--- a/cyclops_r3/notes/thd-calculator.xlsx
+++ b/cyclops_r3/notes/thd-calculator.xlsx
@@ -51,13 +51,13 @@
     <t>VRMS^2</t>
   </si>
   <si>
-    <t>Cyclops Opitcal FB</t>
-  </si>
-  <si>
     <t>Cyclops Current FB</t>
   </si>
   <si>
     <t>Plexon LD1</t>
+  </si>
+  <si>
+    <t>Part</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -490,19 +490,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="F1" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="K1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
